--- a/智库停止采集网站问题(299_777)-20220525.xlsx
+++ b/智库停止采集网站问题(299_777)-20220525.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10499A3-1A38-417C-A3A2-3935F79F1585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779056E-3C64-4412-8849-74B47789B8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
@@ -1000,167 +1000,168 @@
     <t>Committee for a Responsible Federal Budget (CRFB)</t>
   </si>
   <si>
+    <t>Pacific Forum International</t>
+  </si>
+  <si>
+    <t>Macdonald–Laurier Institute (MLI)</t>
+  </si>
+  <si>
+    <t>SRI International</t>
+  </si>
+  <si>
+    <t>Grattan Institute</t>
+  </si>
+  <si>
+    <t>International Republican Institute</t>
+  </si>
+  <si>
+    <t>Institute for Government</t>
+  </si>
+  <si>
+    <t>Centro Studi Internazionali (Ce.S.I.)</t>
+  </si>
+  <si>
+    <t>India Council for Research on International Economic Relations(ICRIER)</t>
+  </si>
+  <si>
+    <t>Chatham House</t>
+  </si>
+  <si>
+    <t>NORC at the University of Chicago</t>
+  </si>
+  <si>
+    <t>Lowy Institute</t>
+  </si>
+  <si>
+    <t>Macroeconomic Policy Institute (IMK)</t>
+  </si>
+  <si>
+    <t>Hispanic American Center for Economic Research (HACER)</t>
+  </si>
+  <si>
+    <t>Center for Economic and Social Development (CESD)</t>
+  </si>
+  <si>
+    <t>Bow Group</t>
+  </si>
+  <si>
+    <t>Ratio Institute</t>
+  </si>
+  <si>
+    <t>Itinera Institute</t>
+  </si>
+  <si>
+    <t>McCain Institute</t>
+  </si>
+  <si>
+    <t>Policy Studies Institute</t>
+  </si>
+  <si>
+    <t>Institute of International and European Affairs</t>
+  </si>
+  <si>
+    <t>Joint  Center for Housing Studies</t>
+  </si>
+  <si>
+    <t>Canon Institute for Global Studies</t>
+  </si>
+  <si>
+    <t>Mizuho Research Institute</t>
+  </si>
+  <si>
+    <t>Show-Me Institute</t>
+  </si>
+  <si>
+    <t>Institute for Strategic Dialogue</t>
+  </si>
+  <si>
+    <t>China Institute</t>
+  </si>
+  <si>
+    <t>Institute of Economic Growth (IEG)</t>
+  </si>
+  <si>
+    <t>Spark Policy Institute</t>
+  </si>
+  <si>
+    <t>Centre for the Economics of Education (CEE)</t>
+  </si>
+  <si>
+    <t>Policy Research Institute of Market Economy</t>
+  </si>
+  <si>
+    <t>Fujitsu Research Institute（FRI）</t>
+  </si>
+  <si>
+    <t>Institute of Public Affairs (IPA)</t>
+  </si>
+  <si>
+    <t>New City Initiative</t>
+  </si>
+  <si>
+    <t>crsreports.congress.gov</t>
+  </si>
+  <si>
+    <t>重采</t>
+  </si>
+  <si>
+    <t>js反爬, 生成cookie，第一页有</t>
+  </si>
+  <si>
+    <t>cloudflare反爬虫</t>
+  </si>
+  <si>
+    <t>需要修改配置</t>
+  </si>
+  <si>
+    <t>需要海外代理否则403</t>
+  </si>
+  <si>
+    <t>需要重新配置</t>
+  </si>
+  <si>
+    <t>website字段配置错误，需要重新全量采集。</t>
+  </si>
+  <si>
+    <t>海外代理也打不开</t>
+  </si>
+  <si>
+    <t>连接失效,需要重新配置</t>
+  </si>
+  <si>
+    <t>网站打不开, 海外代理也打不开</t>
+  </si>
+  <si>
+    <t>链接失效需要重新配置</t>
+  </si>
+  <si>
+    <t>跳转到其他网站</t>
+  </si>
+  <si>
+    <t>需要海外代理, 否则打开403</t>
+  </si>
+  <si>
+    <t>有海外代理也打不开</t>
+  </si>
+  <si>
+    <t>网站改版,需要重新配置</t>
+  </si>
+  <si>
+    <t>反爬虫</t>
+  </si>
+  <si>
+    <t>四个重点网站采集文档</t>
+  </si>
+  <si>
     <t>National Credit Union Administration (NCUA)</t>
-  </si>
-  <si>
-    <t>Pacific Forum International</t>
-  </si>
-  <si>
-    <t>Macdonald–Laurier Institute (MLI)</t>
-  </si>
-  <si>
-    <t>SRI International</t>
-  </si>
-  <si>
-    <t>Grattan Institute</t>
-  </si>
-  <si>
-    <t>International Republican Institute</t>
-  </si>
-  <si>
-    <t>Institute for Government</t>
-  </si>
-  <si>
-    <t>Centro Studi Internazionali (Ce.S.I.)</t>
-  </si>
-  <si>
-    <t>India Council for Research on International Economic Relations(ICRIER)</t>
-  </si>
-  <si>
-    <t>Chatham House</t>
-  </si>
-  <si>
-    <t>NORC at the University of Chicago</t>
-  </si>
-  <si>
-    <t>Lowy Institute</t>
-  </si>
-  <si>
-    <t>Macroeconomic Policy Institute (IMK)</t>
-  </si>
-  <si>
-    <t>Hispanic American Center for Economic Research (HACER)</t>
-  </si>
-  <si>
-    <t>Center for Economic and Social Development (CESD)</t>
-  </si>
-  <si>
-    <t>Bow Group</t>
-  </si>
-  <si>
-    <t>Ratio Institute</t>
-  </si>
-  <si>
-    <t>Itinera Institute</t>
-  </si>
-  <si>
-    <t>McCain Institute</t>
-  </si>
-  <si>
-    <t>Policy Studies Institute</t>
-  </si>
-  <si>
-    <t>Institute of International and European Affairs</t>
-  </si>
-  <si>
-    <t>Joint  Center for Housing Studies</t>
-  </si>
-  <si>
-    <t>Canon Institute for Global Studies</t>
-  </si>
-  <si>
-    <t>Mizuho Research Institute</t>
-  </si>
-  <si>
-    <t>Show-Me Institute</t>
-  </si>
-  <si>
-    <t>Institute for Strategic Dialogue</t>
-  </si>
-  <si>
-    <t>China Institute</t>
-  </si>
-  <si>
-    <t>Institute of Economic Growth (IEG)</t>
-  </si>
-  <si>
-    <t>Spark Policy Institute</t>
-  </si>
-  <si>
-    <t>Centre for the Economics of Education (CEE)</t>
-  </si>
-  <si>
-    <t>Policy Research Institute of Market Economy</t>
-  </si>
-  <si>
-    <t>Fujitsu Research Institute（FRI）</t>
-  </si>
-  <si>
-    <t>Institute of Public Affairs (IPA)</t>
-  </si>
-  <si>
-    <t>New City Initiative</t>
-  </si>
-  <si>
-    <t>crsreports.congress.gov</t>
-  </si>
-  <si>
-    <t>重采</t>
-  </si>
-  <si>
-    <t>js反爬, 生成cookie，第一页有</t>
-  </si>
-  <si>
-    <t>cloudflare反爬虫</t>
-  </si>
-  <si>
-    <t>需要修改配置</t>
-  </si>
-  <si>
-    <t>需要海外代理否则403</t>
-  </si>
-  <si>
-    <t>需要重新配置</t>
-  </si>
-  <si>
-    <t>website字段配置错误，需要重新全量采集。</t>
-  </si>
-  <si>
-    <t>海外代理也打不开</t>
-  </si>
-  <si>
-    <t>连接失效,需要重新配置</t>
-  </si>
-  <si>
-    <t>网站打不开, 海外代理也打不开</t>
-  </si>
-  <si>
-    <t>链接失效需要重新配置</t>
-  </si>
-  <si>
-    <t>跳转到其他网站</t>
-  </si>
-  <si>
-    <t>需要海外代理, 否则打开403</t>
-  </si>
-  <si>
-    <t>有海外代理也打不开</t>
-  </si>
-  <si>
-    <t>网站改版,需要重新配置</t>
-  </si>
-  <si>
-    <t>反爬虫</t>
-  </si>
-  <si>
-    <t>四个重点网站采集文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,6 +1194,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1203,7 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,11 +1231,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1549,8 +1564,8 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1579,1560 +1594,1560 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>522</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>530</v>
+        <v>840</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>365</v>
+        <v>680</v>
       </c>
       <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4">
         <v>121</v>
       </c>
-      <c r="C4">
-        <v>1373</v>
-      </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>369</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="C5">
-        <v>1360</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>470</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C6">
-        <v>732</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>640</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C7">
-        <v>206</v>
+        <v>1426</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>681</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>585</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>699</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>662</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>509</v>
+        <v>380</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="C10">
-        <v>566</v>
+        <v>1258</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>157</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>342</v>
       </c>
       <c r="C11">
-        <v>5818</v>
+        <v>546</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20811</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
+      <c r="A12">
+        <v>719</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>722</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>381</v>
+        <v>664</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="C14">
-        <v>1257</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>19</v>
+        <v>650</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="C15">
-        <v>43562</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>2816</v>
+        <v>73619</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>445</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="C17">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>581</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>370</v>
+        <v>11761</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>710</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>10977</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>507</v>
+        <v>682</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="C20">
-        <v>580</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>120</v>
+        <v>701</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="C21">
-        <v>7855</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="C22">
-        <v>73619</v>
+        <v>360</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C23">
-        <v>7050</v>
+        <v>2807</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>632</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>223</v>
+        <v>55305</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2">
-        <v>64137</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
+      <c r="A25">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25">
+        <v>10132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>461</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="C26">
-        <v>765</v>
+        <v>266699</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>611</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="C27">
-        <v>287</v>
+        <v>9868</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C28">
-        <v>1397</v>
+        <v>732</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>502</v>
+        <v>632</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C29">
-        <v>596</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>562</v>
+        <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="C30">
-        <v>436</v>
+        <v>1011</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>769</v>
+        <v>630</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C32">
-        <v>1011</v>
+        <v>1042</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>770</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>298</v>
+      <c r="A33">
+        <v>704</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>622</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="C34">
-        <v>259</v>
+        <v>5661</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>630</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="C35">
-        <v>224</v>
+        <v>9190</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>329</v>
+        <v>633</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="C36">
-        <v>1774</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>553</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C37">
-        <v>456</v>
+        <v>2720</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>511</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C38">
-        <v>561</v>
+        <v>9288</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>732</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>1664</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>387</v>
+        <v>636</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="C40">
-        <v>1190</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="C41">
-        <v>13837</v>
+        <v>2491</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="C42">
-        <v>1258</v>
+        <v>1162</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>551</v>
+        <v>695</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C43">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C44">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>20</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="2">
-        <v>36052</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>16</v>
+      <c r="A45">
+        <v>672</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="C46">
-        <v>7783</v>
+        <v>5702</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>728</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>2428</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="C48">
-        <v>11761</v>
+        <v>815</v>
       </c>
       <c r="D48" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>409</v>
+        <v>629</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C49">
-        <v>1042</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>360</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="C50">
-        <v>4561</v>
+        <v>8254</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>474</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C51">
-        <v>708</v>
+        <v>8616</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>127</v>
+        <v>666</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="C52">
-        <v>7362</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>3</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>436</v>
+        <v>730</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="C53">
-        <v>884</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>175</v>
+        <v>649</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="C54">
-        <v>5050</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>231</v>
+        <v>587</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="C55">
-        <v>3403</v>
+        <v>363</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>679</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="C56">
-        <v>121</v>
+        <v>986</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>438</v>
+        <v>648</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="C57">
-        <v>882</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C58" s="2">
-        <v>14668</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="A58">
+        <v>270</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58">
+        <v>2514</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>36</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2">
+        <v>20811</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2">
+        <v>64137</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>395</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59">
-        <v>1161</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>736</v>
-      </c>
-      <c r="B60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C60">
-        <v>22</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>104</v>
+        <v>770</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C61" s="2">
-        <v>9360</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2">
+        <v>36052</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>56</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="2">
+        <v>14668</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>84</v>
-      </c>
-      <c r="B62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62">
-        <v>10977</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>680</v>
-      </c>
-      <c r="B63" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63">
-        <v>121</v>
-      </c>
-      <c r="D63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>424</v>
-      </c>
-      <c r="B64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64">
-        <v>924</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3</v>
+      <c r="A64" s="2">
+        <v>104</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="2">
+        <v>9360</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>147</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65">
-        <v>6312</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>3</v>
+      <c r="A65" s="2">
+        <v>486</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="2">
+        <v>686</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>486</v>
+        <v>288</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="C66" s="2">
-        <v>686</v>
+        <v>2228</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>152</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67">
-        <v>6123</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>3</v>
+      <c r="A67" s="2">
+        <v>316</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1857</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>440</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68">
-        <v>872</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3</v>
+      <c r="A68" s="2">
+        <v>536</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="2">
+        <v>493</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>401</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69">
-        <v>1118</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
-        <v>3</v>
+      <c r="A69" s="2">
+        <v>47</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="2">
+        <v>17334</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>585</v>
-      </c>
-      <c r="B70" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70">
-        <v>365</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>364</v>
+      <c r="A70" s="2">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6532</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>117</v>
-      </c>
-      <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71">
-        <v>8089</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>3</v>
+      <c r="A71" s="2">
+        <v>77</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="2">
+        <v>11605</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>425</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72">
-        <v>923</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" t="s">
-        <v>3</v>
+      <c r="A72" s="2">
+        <v>315</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1880</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>288</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>327</v>
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="C73" s="2">
-        <v>2228</v>
+        <v>21988</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>392</v>
-      </c>
-      <c r="B74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74">
-        <v>1173</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>3</v>
+      <c r="A74" s="2">
+        <v>291</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2210</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>316</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>329</v>
+        <v>122</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C75" s="2">
-        <v>1857</v>
+        <v>7799</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>536</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>346</v>
+        <v>281</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="C76" s="2">
-        <v>493</v>
+        <v>2360</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>704</v>
-      </c>
-      <c r="B77" t="s">
-        <v>255</v>
-      </c>
-      <c r="C77">
-        <v>69</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
+      <c r="A77" s="2">
+        <v>523</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="2">
+        <v>529</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>378</v>
-      </c>
-      <c r="B78" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78">
-        <v>1274</v>
-      </c>
-      <c r="D78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" t="s">
-        <v>3</v>
+      <c r="A78" s="2">
+        <v>573</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" s="2">
+        <v>391</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>161</v>
-      </c>
-      <c r="B79" t="s">
-        <v>319</v>
-      </c>
-      <c r="C79">
-        <v>5661</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1</v>
+      <c r="A79" s="2">
+        <v>709</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" s="2">
+        <v>64</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>420</v>
-      </c>
-      <c r="B80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80">
-        <v>949</v>
-      </c>
-      <c r="D80" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3</v>
+      <c r="A80" s="2">
+        <v>192</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4494</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>724</v>
-      </c>
-      <c r="B81" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81">
-        <v>39</v>
-      </c>
-      <c r="D81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" t="s">
-        <v>271</v>
+      <c r="A81" s="2">
+        <v>386</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1211</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="C82" s="2">
-        <v>17334</v>
+        <v>4788</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>602</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C83" s="2">
+        <v>317</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>125</v>
-      </c>
-      <c r="B83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83">
-        <v>7591</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>711</v>
-      </c>
-      <c r="B84" t="s">
-        <v>261</v>
-      </c>
-      <c r="C84">
-        <v>54</v>
-      </c>
-      <c r="D84" t="s">
-        <v>188</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
+      <c r="A84" s="2">
+        <v>58</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2">
+        <v>14186</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>413</v>
-      </c>
-      <c r="B85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85">
-        <v>1026</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>3</v>
+      <c r="A85" s="2">
+        <v>187</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4592</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>725</v>
-      </c>
-      <c r="B86" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86">
-        <v>37</v>
-      </c>
-      <c r="D86" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" t="s">
-        <v>273</v>
+      <c r="A86" s="2">
+        <v>131</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6962</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>106</v>
-      </c>
-      <c r="B87" t="s">
-        <v>315</v>
-      </c>
-      <c r="C87">
-        <v>9190</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>358</v>
+      <c r="A87" s="2">
+        <v>624</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="2">
+        <v>252</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>137</v>
+        <v>521</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C88" s="2">
-        <v>6532</v>
+        <v>539</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>579</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" s="2">
+        <v>377</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>28</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="2">
+        <v>24391</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>720</v>
-      </c>
-      <c r="B89" t="s">
-        <v>354</v>
-      </c>
-      <c r="C89">
-        <v>45</v>
-      </c>
-      <c r="E89" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>746</v>
-      </c>
-      <c r="B90" t="s">
-        <v>288</v>
-      </c>
-      <c r="C90">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>158</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91">
-        <v>5706</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>3</v>
+      <c r="A91" s="2">
+        <v>538</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="2">
+        <v>493</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>67</v>
+        <v>710</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="C92">
-        <v>12739</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E92" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="C93">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E93" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,132 +3169,132 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="C95">
-        <v>8331</v>
+        <v>471</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E95" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="C96">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E96" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>309</v>
+        <v>705</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="C97">
-        <v>1949</v>
+        <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E97" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>218</v>
+        <v>498</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="C98">
-        <v>3570</v>
+        <v>634</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E98" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
+        <v>506</v>
+      </c>
+      <c r="B99" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99">
         <v>584</v>
       </c>
-      <c r="B99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99">
-        <v>366</v>
-      </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>10</v>
+        <v>609</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="C100">
-        <v>90680</v>
+        <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E100" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C101">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="E101" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>547</v>
+        <v>747</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="C102">
-        <v>471</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>188</v>
@@ -3290,115 +3305,115 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>85</v>
+        <v>743</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="C103">
-        <v>10874</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E103" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>362</v>
+        <v>744</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="C104">
-        <v>1426</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>118</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="C105">
-        <v>139</v>
+        <v>561</v>
       </c>
       <c r="D105" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>82</v>
+        <v>725</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C106">
-        <v>11037</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="E106" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C107">
-        <v>689</v>
+        <v>526</v>
       </c>
       <c r="D107" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C109">
-        <v>3911</v>
+        <v>530</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -3409,13 +3424,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>549</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="C110">
-        <v>462</v>
+        <v>1373</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -3426,13 +3441,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C111">
-        <v>12408</v>
+        <v>1360</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -3443,47 +3458,47 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>262</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="C112">
-        <v>2720</v>
+        <v>206</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>105</v>
+        <v>681</v>
       </c>
       <c r="B113" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="C113">
-        <v>9288</v>
+        <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>285</v>
+        <v>699</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="C114">
-        <v>2278</v>
+        <v>80</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -3494,13 +3509,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>45</v>
+        <v>509</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="C115">
-        <v>17602</v>
+        <v>566</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -3511,13 +3526,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C116">
-        <v>1933</v>
+        <v>5818</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -3528,13 +3543,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>312</v>
+        <v>722</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="C117">
-        <v>1920</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -3545,13 +3560,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>91</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C118">
-        <v>10362</v>
+        <v>1257</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -3562,13 +3577,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>753</v>
+        <v>43562</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -3579,13 +3594,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>514</v>
+        <v>256</v>
       </c>
       <c r="B120" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C120">
-        <v>547</v>
+        <v>2816</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -3596,30 +3611,30 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="C121">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>246</v>
+        <v>507</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="C122">
-        <v>2933</v>
+        <v>580</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -3630,13 +3645,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C123">
-        <v>6855</v>
+        <v>7855</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -3647,13 +3662,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>512</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="C124">
-        <v>558</v>
+        <v>7050</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -3664,47 +3679,47 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C125">
-        <v>1664</v>
+        <v>765</v>
       </c>
       <c r="D125" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>360</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>505</v>
+        <v>611</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C126">
-        <v>585</v>
+        <v>287</v>
       </c>
       <c r="D126" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C127">
-        <v>2771</v>
+        <v>1397</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -3715,13 +3730,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C128">
-        <v>1156</v>
+        <v>596</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -3732,13 +3747,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>149</v>
+        <v>562</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C129">
-        <v>6200</v>
+        <v>436</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -3749,13 +3764,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>289</v>
+        <v>622</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="C130">
-        <v>2225</v>
+        <v>259</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -3766,13 +3781,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C131">
-        <v>68787</v>
+        <v>1774</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -3783,13 +3798,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>322</v>
+        <v>553</v>
       </c>
       <c r="B132" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C132">
-        <v>1833</v>
+        <v>456</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -3800,61 +3815,64 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>723</v>
+        <v>387</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>1190</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>636</v>
+        <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="C134">
-        <v>210</v>
+        <v>13837</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="B135" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="C135">
-        <v>2491</v>
+        <v>1258</v>
       </c>
       <c r="D135" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>428</v>
+        <v>551</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C136">
-        <v>918</v>
+        <v>460</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -3865,13 +3883,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C137">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -3882,13 +3900,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C138">
-        <v>27619</v>
+        <v>7783</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -3899,30 +3917,30 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>497</v>
+        <v>728</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="C139">
-        <v>650</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>501</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C140">
-        <v>612</v>
+        <v>4561</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -3933,47 +3951,47 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
+        <v>156</v>
       </c>
       <c r="C141">
-        <v>1162</v>
+        <v>708</v>
       </c>
       <c r="D141" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>77</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C142" s="2">
-        <v>11605</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>11</v>
+      <c r="A142">
+        <v>127</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>7362</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>733</v>
+        <v>436</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="C143">
-        <v>26</v>
+        <v>884</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -3983,31 +4001,31 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>315</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1880</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>104</v>
+      <c r="A144">
+        <v>175</v>
+      </c>
+      <c r="B144" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144">
+        <v>5050</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>592</v>
+        <v>231</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="C145">
-        <v>348</v>
+        <v>3403</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -4017,48 +4035,48 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>33</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C146" s="2">
-        <v>21988</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>11</v>
+      <c r="A146">
+        <v>679</v>
+      </c>
+      <c r="B146" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146">
+        <v>121</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>291</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C147" s="2">
-        <v>2210</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>11</v>
+      <c r="A147">
+        <v>438</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>882</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>144</v>
+        <v>395</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C148">
-        <v>6379</v>
+        <v>1161</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -4069,13 +4087,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C149">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -4086,13 +4104,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="B150" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C150">
-        <v>3442</v>
+        <v>924</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -4103,13 +4121,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C151">
-        <v>3614</v>
+        <v>6312</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -4120,13 +4138,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C152">
-        <v>1621</v>
+        <v>6123</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -4137,30 +4155,30 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C153">
-        <v>113</v>
+        <v>872</v>
       </c>
       <c r="D153" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>546</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C154">
-        <v>473</v>
+        <v>1118</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -4171,13 +4189,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C155">
-        <v>2223</v>
+        <v>8089</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -4188,115 +4206,115 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>695</v>
+        <v>425</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="C156">
-        <v>90</v>
+        <v>923</v>
       </c>
       <c r="D156" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>122</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C157" s="2">
-        <v>7799</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>11</v>
+      <c r="A157">
+        <v>392</v>
+      </c>
+      <c r="B157" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157">
+        <v>1173</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>281</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" s="2">
-        <v>2360</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>11</v>
+      <c r="A158">
+        <v>378</v>
+      </c>
+      <c r="B158" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158">
+        <v>1274</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>651</v>
+        <v>420</v>
       </c>
       <c r="B159" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="C159">
-        <v>188</v>
+        <v>949</v>
       </c>
       <c r="D159" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>615</v>
+        <v>724</v>
       </c>
       <c r="B160" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="C160">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>701</v>
+        <v>125</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="C161">
-        <v>76</v>
+        <v>7591</v>
       </c>
       <c r="D161" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C162">
-        <v>9802</v>
+        <v>1026</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -4307,13 +4325,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>472</v>
+        <v>746</v>
       </c>
       <c r="B163" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="C163">
-        <v>721</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -4324,30 +4342,30 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>672</v>
+        <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="C164">
-        <v>133</v>
+        <v>5706</v>
       </c>
       <c r="D164" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C165">
-        <v>6430</v>
+        <v>12739</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -4358,13 +4376,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>214</v>
+        <v>635</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="C166">
-        <v>3741</v>
+        <v>211</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -4375,13 +4393,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>327</v>
+        <v>114</v>
       </c>
       <c r="B167" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C167">
-        <v>1805</v>
+        <v>8331</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -4391,48 +4409,48 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>523</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C168" s="2">
-        <v>529</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>367</v>
+      <c r="A168">
+        <v>688</v>
+      </c>
+      <c r="B168" t="s">
+        <v>248</v>
+      </c>
+      <c r="C168">
+        <v>101</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>705</v>
+        <v>309</v>
       </c>
       <c r="B169" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="C169">
-        <v>68</v>
+        <v>1949</v>
       </c>
       <c r="D169" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="B170" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C170">
-        <v>2785</v>
+        <v>3570</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -4443,27 +4461,30 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="C171">
-        <v>5702</v>
+        <v>90680</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="B172" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C172">
-        <v>2885</v>
+        <v>10874</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -4473,82 +4494,82 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>573</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C173" s="2">
-        <v>391</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>11</v>
+      <c r="A173">
+        <v>667</v>
+      </c>
+      <c r="B173" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173">
+        <v>139</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="C174">
-        <v>662</v>
+        <v>11037</v>
       </c>
       <c r="D174" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B175" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="C175">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="D175" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>365</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>590</v>
+        <v>759</v>
       </c>
       <c r="B176" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="C176">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>370</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C177">
-        <v>2976</v>
+        <v>3911</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -4559,13 +4580,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>183</v>
+        <v>549</v>
       </c>
       <c r="B178" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="C178">
-        <v>4702</v>
+        <v>462</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -4576,13 +4597,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>638</v>
+        <v>70</v>
       </c>
       <c r="B179" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="C179">
-        <v>207</v>
+        <v>12408</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -4592,31 +4613,31 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>709</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C180" s="2">
-        <v>64</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>11</v>
+      <c r="A180">
+        <v>285</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180">
+        <v>2278</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C181">
-        <v>1580</v>
+        <v>17602</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -4627,13 +4648,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="B182" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C182">
-        <v>8755</v>
+        <v>1933</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -4644,30 +4665,30 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="B183" t="s">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="C183">
-        <v>2428</v>
+        <v>1920</v>
       </c>
       <c r="D183" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>402</v>
+        <v>91</v>
       </c>
       <c r="B184" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C184">
-        <v>1103</v>
+        <v>10362</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -4678,13 +4699,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>757</v>
+        <v>466</v>
       </c>
       <c r="B185" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="C185">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -4695,13 +4716,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C186">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -4712,13 +4733,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>597</v>
+        <v>246</v>
       </c>
       <c r="B187" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="C187">
-        <v>328</v>
+        <v>2933</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -4729,13 +4750,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B188" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="C188">
-        <v>11163</v>
+        <v>6855</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -4746,30 +4767,30 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="B189" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="C189">
-        <v>815</v>
+        <v>558</v>
       </c>
       <c r="D189" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>360</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B190" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C190">
-        <v>2346</v>
+        <v>2771</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -4780,13 +4801,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>577</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="C191">
-        <v>380</v>
+        <v>1156</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -4797,13 +4818,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="B192" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C192">
-        <v>1378</v>
+        <v>6200</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -4814,13 +4835,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>490</v>
+        <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="C193">
-        <v>676</v>
+        <v>2225</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -4831,13 +4852,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>712</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="C194">
-        <v>53</v>
+        <v>68787</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -4848,13 +4869,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>654</v>
+        <v>322</v>
       </c>
       <c r="B195" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="C195">
-        <v>183</v>
+        <v>1833</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -4865,64 +4886,64 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>629</v>
+        <v>428</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="C196">
-        <v>226</v>
+        <v>918</v>
       </c>
       <c r="D196" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>506</v>
+        <v>676</v>
       </c>
       <c r="B197" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="C197">
-        <v>584</v>
+        <v>126</v>
       </c>
       <c r="D197" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>360</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>609</v>
+        <v>23</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="C198">
-        <v>288</v>
+        <v>27619</v>
       </c>
       <c r="D198" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>642</v>
+        <v>497</v>
       </c>
       <c r="B199" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="C199">
-        <v>204</v>
+        <v>650</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -4933,13 +4954,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>148</v>
+        <v>501</v>
       </c>
       <c r="B200" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C200">
-        <v>6225</v>
+        <v>612</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -4950,64 +4971,64 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>115</v>
+        <v>733</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C201">
-        <v>8254</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>270</v>
+        <v>592</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C202">
-        <v>2514</v>
+        <v>348</v>
       </c>
       <c r="D202" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C203">
-        <v>8616</v>
+        <v>6379</v>
       </c>
       <c r="D203" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>530</v>
+        <v>718</v>
       </c>
       <c r="B204" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="C204">
-        <v>519</v>
+        <v>45</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -5018,30 +5039,30 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>618</v>
+        <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="C205">
-        <v>266</v>
+        <v>3442</v>
       </c>
       <c r="D205" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C206">
-        <v>1218</v>
+        <v>3614</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -5052,13 +5073,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C207">
-        <v>5046</v>
+        <v>1621</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -5069,47 +5090,47 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="B208" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="C208">
-        <v>1258</v>
+        <v>473</v>
       </c>
       <c r="D208" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C209">
-        <v>2807</v>
+        <v>2223</v>
       </c>
       <c r="D209" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>508</v>
+        <v>615</v>
       </c>
       <c r="B210" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C210">
-        <v>569</v>
+        <v>276</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -5119,31 +5140,31 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>192</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C211" s="2">
-        <v>4494</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>11</v>
+      <c r="A211">
+        <v>97</v>
+      </c>
+      <c r="B211" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211">
+        <v>9802</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="B212" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C212">
-        <v>1312</v>
+        <v>721</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -5153,31 +5174,31 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>386</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C213" s="2">
-        <v>1211</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>11</v>
+      <c r="A213">
+        <v>142</v>
+      </c>
+      <c r="B213" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213">
+        <v>6430</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>338</v>
+        <v>70</v>
       </c>
       <c r="C214">
-        <v>778</v>
+        <v>3741</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -5188,13 +5209,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="B215" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C215">
-        <v>1280</v>
+        <v>1805</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -5205,13 +5226,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="B216" t="s">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="C216">
-        <v>9395</v>
+        <v>2785</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -5222,13 +5243,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C217">
-        <v>1941</v>
+        <v>2885</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -5239,30 +5260,30 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>516</v>
+        <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="C218">
-        <v>546</v>
+        <v>2976</v>
       </c>
       <c r="D218" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C219">
-        <v>629</v>
+        <v>4702</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -5273,183 +5294,183 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="B220" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C220">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="D220" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>236</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>7</v>
+        <v>348</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="C221">
-        <v>148119</v>
+        <v>1580</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>730</v>
+        <v>110</v>
       </c>
       <c r="B222" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="C222">
-        <v>29</v>
+        <v>8755</v>
       </c>
       <c r="D222" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="C223">
-        <v>55305</v>
+        <v>1103</v>
       </c>
       <c r="D223" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>93</v>
+        <v>757</v>
       </c>
       <c r="B224" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C224">
-        <v>10132</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>357</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>180</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C225" s="2">
-        <v>4788</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>359</v>
+      <c r="A225">
+        <v>517</v>
+      </c>
+      <c r="B225" t="s">
+        <v>178</v>
+      </c>
+      <c r="C225">
+        <v>545</v>
+      </c>
+      <c r="D225" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>719</v>
+        <v>597</v>
       </c>
       <c r="B226" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="C226">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="D226" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>747</v>
+        <v>80</v>
       </c>
       <c r="B227" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C227">
-        <v>11</v>
+        <v>11163</v>
       </c>
       <c r="D227" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B228" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C228">
-        <v>2095</v>
+        <v>2346</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>602</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C229" s="2">
-        <v>317</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>11</v>
+      <c r="A229">
+        <v>577</v>
+      </c>
+      <c r="B229" t="s">
+        <v>195</v>
+      </c>
+      <c r="C229">
+        <v>380</v>
+      </c>
+      <c r="D229" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="B230" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C230">
-        <v>6356</v>
+        <v>1378</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -5460,13 +5481,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="B231" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C231">
-        <v>547</v>
+        <v>676</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -5477,13 +5498,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C232">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -5494,13 +5515,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>741</v>
+        <v>654</v>
       </c>
       <c r="B233" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C233">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -5511,13 +5532,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>266</v>
+        <v>642</v>
       </c>
       <c r="B234" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="C234">
-        <v>2668</v>
+        <v>204</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -5528,47 +5549,47 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="B235" t="s">
-        <v>330</v>
+        <v>57</v>
       </c>
       <c r="C235">
-        <v>1460</v>
+        <v>6225</v>
       </c>
       <c r="D235" t="s">
-        <v>355</v>
+        <v>3</v>
       </c>
       <c r="E235" t="s">
-        <v>361</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>58</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C236" s="2">
-        <v>14186</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>24</v>
+      <c r="A236">
+        <v>530</v>
+      </c>
+      <c r="B236" t="s">
+        <v>183</v>
+      </c>
+      <c r="C236">
+        <v>519</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>156</v>
+        <v>385</v>
       </c>
       <c r="B237" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C237">
-        <v>5862</v>
+        <v>1218</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -5579,81 +5600,81 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B238" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="C238">
-        <v>266699</v>
+        <v>5046</v>
       </c>
       <c r="D238" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>356</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>649</v>
+        <v>508</v>
       </c>
       <c r="B239" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C239">
-        <v>192</v>
+        <v>569</v>
       </c>
       <c r="D239" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>187</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C240" s="2">
-        <v>4592</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>11</v>
+      <c r="A240">
+        <v>373</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240">
+        <v>1312</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="B241" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="C241">
-        <v>526</v>
+        <v>778</v>
       </c>
       <c r="D241" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C242">
-        <v>5193</v>
+        <v>1280</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -5663,31 +5684,31 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>131</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C243" s="2">
-        <v>6962</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>11</v>
+      <c r="A243">
+        <v>102</v>
+      </c>
+      <c r="B243" t="s">
+        <v>312</v>
+      </c>
+      <c r="C243">
+        <v>9395</v>
+      </c>
+      <c r="D243" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B244" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C244">
-        <v>1721</v>
+        <v>1941</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -5698,64 +5719,64 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>587</v>
+        <v>499</v>
       </c>
       <c r="B245" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="C245">
-        <v>363</v>
+        <v>629</v>
       </c>
       <c r="D245" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>491</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>2</v>
       </c>
       <c r="C246">
-        <v>671</v>
+        <v>148119</v>
       </c>
       <c r="D246" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>364</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>624</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C247" s="2">
-        <v>252</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>11</v>
+      <c r="A247">
+        <v>300</v>
+      </c>
+      <c r="B247" t="s">
+        <v>96</v>
+      </c>
+      <c r="C247">
+        <v>2095</v>
+      </c>
+      <c r="D247" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>737</v>
+        <v>145</v>
       </c>
       <c r="B248" t="s">
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="C248">
-        <v>22</v>
+        <v>6356</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -5766,13 +5787,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>375</v>
+        <v>515</v>
       </c>
       <c r="B249" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C249">
-        <v>1308</v>
+        <v>547</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -5783,13 +5804,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>612</v>
+        <v>673</v>
       </c>
       <c r="B250" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="C250">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -5800,13 +5821,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>59</v>
+        <v>741</v>
       </c>
       <c r="B251" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="C251">
-        <v>14177</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -5817,30 +5838,30 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>417</v>
+        <v>266</v>
       </c>
       <c r="B252" t="s">
-        <v>336</v>
+        <v>87</v>
       </c>
       <c r="C252">
-        <v>986</v>
+        <v>2668</v>
       </c>
       <c r="D252" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>360</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>566</v>
+        <v>156</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="C253">
-        <v>415</v>
+        <v>5862</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -5851,13 +5872,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="B254" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C254">
-        <v>13348</v>
+        <v>5193</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -5868,13 +5889,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="B255" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C255">
-        <v>4669</v>
+        <v>1721</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -5885,13 +5906,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="C256">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -5902,13 +5923,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>563</v>
+        <v>375</v>
       </c>
       <c r="B257" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="C257">
-        <v>430</v>
+        <v>1308</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -5919,13 +5940,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B258" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C258">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -5936,13 +5957,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>513</v>
+        <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="C259">
-        <v>551</v>
+        <v>14177</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -5953,13 +5974,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>98</v>
+        <v>566</v>
       </c>
       <c r="B260" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="C260">
-        <v>9734</v>
+        <v>415</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -5970,13 +5991,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>480</v>
+        <v>65</v>
       </c>
       <c r="B261" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="C261">
-        <v>698</v>
+        <v>13348</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -5987,13 +6008,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>716</v>
+        <v>185</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="C262">
-        <v>47</v>
+        <v>4669</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -6004,13 +6025,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>353</v>
+        <v>689</v>
       </c>
       <c r="B263" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="C263">
-        <v>1517</v>
+        <v>101</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -6020,48 +6041,48 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>521</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C264" s="2">
-        <v>539</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>360</v>
+      <c r="A264">
+        <v>563</v>
+      </c>
+      <c r="B264" t="s">
+        <v>193</v>
+      </c>
+      <c r="C264">
+        <v>430</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="B265" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C265">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="D265" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E265" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>423</v>
+        <v>513</v>
       </c>
       <c r="B266" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C266">
-        <v>933</v>
+        <v>551</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -6072,13 +6093,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="B267" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C267">
-        <v>1841</v>
+        <v>9734</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -6089,30 +6110,30 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>743</v>
+        <v>480</v>
       </c>
       <c r="B268" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="C268">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="D268" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>280</v>
+        <v>716</v>
       </c>
       <c r="B269" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="C269">
-        <v>2390</v>
+        <v>47</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -6123,47 +6144,47 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>762</v>
+        <v>353</v>
       </c>
       <c r="B270" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>1517</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>294</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>579</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C271" s="2">
-        <v>377</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>368</v>
+      <c r="A271">
+        <v>423</v>
+      </c>
+      <c r="B271" t="s">
+        <v>141</v>
+      </c>
+      <c r="C271">
+        <v>933</v>
+      </c>
+      <c r="D271" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="B272" t="s">
-        <v>323</v>
+        <v>105</v>
       </c>
       <c r="C272">
-        <v>2514</v>
+        <v>1841</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -6174,47 +6195,47 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>726</v>
+        <v>280</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="C273">
-        <v>36</v>
+        <v>2390</v>
       </c>
       <c r="D273" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>273</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>146</v>
+        <v>762</v>
       </c>
       <c r="B274" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="C274">
-        <v>6328</v>
+        <v>3</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
       </c>
       <c r="E274" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="B275" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="C275">
-        <v>1703</v>
+        <v>2514</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -6225,13 +6246,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>742</v>
+        <v>146</v>
       </c>
       <c r="B276" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="C276">
-        <v>19</v>
+        <v>6328</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -6242,13 +6263,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>532</v>
+        <v>335</v>
       </c>
       <c r="B277" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C277">
-        <v>506</v>
+        <v>1703</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -6259,13 +6280,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>301</v>
+        <v>742</v>
       </c>
       <c r="B278" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="C278">
-        <v>2091</v>
+        <v>19</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -6276,13 +6297,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>643</v>
+        <v>532</v>
       </c>
       <c r="B279" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C279">
-        <v>200</v>
+        <v>506</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -6293,30 +6314,30 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="B280" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="C280">
-        <v>9868</v>
+        <v>2091</v>
       </c>
       <c r="D280" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>357</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="B281" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C281">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -6327,13 +6348,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>703</v>
+        <v>605</v>
       </c>
       <c r="B282" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="C282">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -6344,19 +6365,19 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="B283" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="C283">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D283" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -6377,31 +6398,31 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>28</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C285" s="2">
-        <v>24391</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>11</v>
+      <c r="A285">
+        <v>717</v>
+      </c>
+      <c r="B285" t="s">
+        <v>264</v>
+      </c>
+      <c r="C285">
+        <v>46</v>
+      </c>
+      <c r="D285" t="s">
+        <v>3</v>
+      </c>
+      <c r="E285" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="B286" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C286">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -6412,13 +6433,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>696</v>
+        <v>411</v>
       </c>
       <c r="B287" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="C287">
-        <v>90</v>
+        <v>1038</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -6429,13 +6450,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B288" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C288">
-        <v>1038</v>
+        <v>1123</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -6446,13 +6467,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>400</v>
+        <v>708</v>
       </c>
       <c r="B289" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="C289">
-        <v>1123</v>
+        <v>65</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -6463,13 +6484,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>708</v>
+        <v>343</v>
       </c>
       <c r="B290" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C290">
-        <v>65</v>
+        <v>1610</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -6480,13 +6501,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="B291" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C291">
-        <v>1610</v>
+        <v>758</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -6497,13 +6518,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B292" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C292">
-        <v>758</v>
+        <v>666</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -6514,13 +6535,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>492</v>
+        <v>244</v>
       </c>
       <c r="B293" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="C293">
-        <v>666</v>
+        <v>3030</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -6531,13 +6552,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>244</v>
+        <v>661</v>
       </c>
       <c r="B294" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="C294">
-        <v>3030</v>
+        <v>154</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -6548,47 +6569,47 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="B295" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C295">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="D295" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>226</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>538</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C296" s="2">
-        <v>493</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>11</v>
+      <c r="A296">
+        <v>382</v>
+      </c>
+      <c r="B296" t="s">
+        <v>129</v>
+      </c>
+      <c r="C296">
+        <v>1254</v>
+      </c>
+      <c r="D296" t="s">
+        <v>3</v>
+      </c>
+      <c r="E296" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="B297" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C297">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -6599,13 +6620,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>677</v>
+        <v>217</v>
       </c>
       <c r="B298" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="C298">
-        <v>126</v>
+        <v>3600</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -6616,58 +6637,52 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B299" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="C299">
-        <v>1254</v>
+        <v>1460</v>
       </c>
       <c r="D299" t="s">
-        <v>3</v>
+        <v>354</v>
       </c>
       <c r="E299" t="s">
-        <v>3</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>599</v>
+        <v>720</v>
       </c>
       <c r="B300" t="s">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="C300">
-        <v>327</v>
-      </c>
-      <c r="D300" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E300" t="s">
-        <v>3</v>
+        <v>370</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>217</v>
+        <v>723</v>
       </c>
       <c r="B301" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="C301">
-        <v>3600</v>
-      </c>
-      <c r="D301" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E301" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E317">
-    <sortCondition ref="B2:B317"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
+    <sortCondition ref="D1:D301"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/智库停止采集网站问题(299_777)-20220525.xlsx
+++ b/智库停止采集网站问题(299_777)-20220525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779056E-3C64-4412-8849-74B47789B8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBFACA3-7E54-4529-A298-CA884DC74D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
@@ -1161,7 +1161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,8 +1202,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,6 +1220,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1264,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,15 +1592,15 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,7 +2604,7 @@
       <c r="A60" s="2">
         <v>15</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="2">
@@ -2593,7 +2621,7 @@
       <c r="A61" s="2">
         <v>770</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>297</v>
       </c>
       <c r="C61" s="2">
@@ -2627,7 +2655,7 @@
       <c r="A63" s="2">
         <v>56</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C63" s="2">
@@ -2661,7 +2689,7 @@
       <c r="A65" s="2">
         <v>486</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C65" s="2">
@@ -2678,7 +2706,7 @@
       <c r="A66" s="2">
         <v>288</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>326</v>
       </c>
       <c r="C66" s="2">
@@ -2695,7 +2723,7 @@
       <c r="A67" s="2">
         <v>316</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C67" s="2">
@@ -2763,7 +2791,7 @@
       <c r="A71" s="2">
         <v>77</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="2">
@@ -2865,7 +2893,7 @@
       <c r="A77" s="2">
         <v>523</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C77" s="2">
@@ -2882,7 +2910,7 @@
       <c r="A78" s="2">
         <v>573</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="7" t="s">
         <v>346</v>
       </c>
       <c r="C78" s="2">
@@ -2892,14 +2920,14 @@
         <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>709</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C79" s="2">
@@ -2916,7 +2944,7 @@
       <c r="A80" s="2">
         <v>192</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="5" t="s">
         <v>321</v>
       </c>
       <c r="C80" s="2">
@@ -2950,7 +2978,7 @@
       <c r="A82" s="2">
         <v>180</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="7" t="s">
         <v>371</v>
       </c>
       <c r="C82" s="2">
@@ -2967,7 +2995,7 @@
       <c r="A83" s="2">
         <v>602</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C83" s="2">
@@ -2976,15 +3004,15 @@
       <c r="D83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
+      <c r="E83" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>58</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="2">
@@ -3069,7 +3097,7 @@
       <c r="A89" s="2">
         <v>579</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="7" t="s">
         <v>347</v>
       </c>
       <c r="C89" s="2">
@@ -3103,7 +3131,7 @@
       <c r="A91" s="2">
         <v>538</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C91" s="2">

--- a/智库停止采集网站问题(299_777)-20220525.xlsx
+++ b/智库停止采集网站问题(299_777)-20220525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBFACA3-7E54-4529-A298-CA884DC74D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91C56E1-85D0-44E8-ABB7-D94760176E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="382">
   <si>
     <t>反爬</t>
   </si>
@@ -1154,6 +1154,45 @@
   </si>
   <si>
     <t>National Credit Union Administration (NCUA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>https://www.newcityinitiative.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.brookings.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.csis.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hoover.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://iegindia.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ncua.gov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.orfonline.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sparkpolicy.com/our-innovations/newsroom/blog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://researchcentre.trtworld.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1248,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1245,12 +1293,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,9 +1326,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1589,11 +1644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CFAE7D-84FD-4BB3-83C3-90494498410F}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,9 +1656,10 @@
     <col min="2" max="2" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
@@ -1619,8 +1675,11 @@
       <c r="E1" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>445</v>
       </c>
@@ -1637,7 +1696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>732</v>
       </c>
@@ -1654,7 +1713,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>680</v>
       </c>
@@ -1671,7 +1730,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>585</v>
       </c>
@@ -1688,7 +1747,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>584</v>
       </c>
@@ -1705,7 +1764,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>362</v>
       </c>
@@ -1722,7 +1781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>505</v>
       </c>
@@ -1739,7 +1798,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>493</v>
       </c>
@@ -1756,7 +1815,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>380</v>
       </c>
@@ -1773,7 +1832,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>516</v>
       </c>
@@ -1790,7 +1849,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>719</v>
       </c>
@@ -1807,7 +1866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>491</v>
       </c>
@@ -1824,7 +1883,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>664</v>
       </c>
@@ -1841,7 +1900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>650</v>
       </c>
@@ -1858,7 +1917,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2413,7 +2472,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>629</v>
       </c>
@@ -2430,7 +2489,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>115</v>
       </c>
@@ -2447,7 +2506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>112</v>
       </c>
@@ -2464,7 +2523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>666</v>
       </c>
@@ -2481,7 +2540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>730</v>
       </c>
@@ -2498,7 +2557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>649</v>
       </c>
@@ -2515,7 +2574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>587</v>
       </c>
@@ -2532,7 +2591,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>417</v>
       </c>
@@ -2549,7 +2608,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>648</v>
       </c>
@@ -2566,7 +2625,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>270</v>
       </c>
@@ -2583,7 +2642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>36</v>
       </c>
@@ -2600,7 +2659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>15</v>
       </c>
@@ -2617,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>770</v>
       </c>
@@ -2633,8 +2692,11 @@
       <c r="E61" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>20</v>
       </c>
@@ -2651,7 +2713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>56</v>
       </c>
@@ -2667,8 +2729,11 @@
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>104</v>
       </c>
@@ -2685,7 +2750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>486</v>
       </c>
@@ -2702,7 +2767,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>288</v>
       </c>
@@ -2719,7 +2784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>316</v>
       </c>
@@ -2736,7 +2801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>536</v>
       </c>
@@ -2753,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>47</v>
       </c>
@@ -2770,7 +2835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>137</v>
       </c>
@@ -2787,7 +2852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>77</v>
       </c>
@@ -2803,8 +2868,11 @@
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>315</v>
       </c>
@@ -2821,7 +2889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>33</v>
       </c>
@@ -2838,7 +2906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>291</v>
       </c>
@@ -2855,7 +2923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>122</v>
       </c>
@@ -2872,7 +2940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>281</v>
       </c>
@@ -2889,7 +2957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>523</v>
       </c>
@@ -2906,7 +2974,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>573</v>
       </c>
@@ -2922,8 +2990,11 @@
       <c r="E78" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>709</v>
       </c>
@@ -2940,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>192</v>
       </c>
@@ -2957,7 +3028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>386</v>
       </c>
@@ -2974,7 +3045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>180</v>
       </c>
@@ -2990,8 +3061,11 @@
       <c r="E82" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>602</v>
       </c>
@@ -3007,8 +3081,11 @@
       <c r="E83" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>58</v>
       </c>
@@ -3024,8 +3101,11 @@
       <c r="E84" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>187</v>
       </c>
@@ -3042,7 +3122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>131</v>
       </c>
@@ -3059,7 +3139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>624</v>
       </c>
@@ -3076,7 +3156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>521</v>
       </c>
@@ -3093,7 +3173,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>579</v>
       </c>
@@ -3109,8 +3189,11 @@
       <c r="E89" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>28</v>
       </c>
@@ -3127,7 +3210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>538</v>
       </c>
@@ -3143,8 +3226,11 @@
       <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>710</v>
       </c>
@@ -3161,7 +3247,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>711</v>
       </c>
@@ -3178,7 +3264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>752</v>
       </c>
@@ -3195,7 +3281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>547</v>
       </c>
@@ -3212,7 +3298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>589</v>
       </c>
@@ -6713,7 +6799,18 @@
     <sortCondition ref="D1:D301"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F83" r:id="rId1" xr:uid="{B2835950-D31C-4BCC-BE93-8B59A04BCFE3}"/>
+    <hyperlink ref="F61" r:id="rId2" xr:uid="{5D227868-2717-4EF1-8ECC-0D163AEE71CD}"/>
+    <hyperlink ref="F63" r:id="rId3" xr:uid="{A012733D-5E69-476F-90FF-F32158048159}"/>
+    <hyperlink ref="F71" r:id="rId4" xr:uid="{C47320E4-14E8-4F20-B7A5-C8DE836D81E5}"/>
+    <hyperlink ref="F78" r:id="rId5" xr:uid="{4F8389FD-A514-4D6A-9844-92ADC342F8AE}"/>
+    <hyperlink ref="F82" r:id="rId6" xr:uid="{8A245A0A-B424-44F4-8D15-281A2E5DCE5A}"/>
+    <hyperlink ref="F84" r:id="rId7" xr:uid="{5FE84AC5-E1C4-4C5C-BDE4-0EEFBCF9271E}"/>
+    <hyperlink ref="F89" r:id="rId8" xr:uid="{E0BC9ABA-F55E-481C-913C-3E2456294801}"/>
+    <hyperlink ref="F91" r:id="rId9" xr:uid="{5B5E8327-6171-4C57-A12E-E09DC0E33866}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/智库停止采集网站问题(299_777)-20220525.xlsx
+++ b/智库停止采集网站问题(299_777)-20220525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91C56E1-85D0-44E8-ABB7-D94760176E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0986D43-928C-4E07-A0D4-E48E31F314C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
@@ -1188,11 +1188,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://sparkpolicy.com/our-innovations/newsroom/blog/</t>
+    <t>https://researchcentre.trtworld.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://researchcentre.trtworld.com</t>
+    <t>http://sparkpolicy.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,8 +1647,8 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3126,7 +3126,7 @@
       <c r="A86" s="2">
         <v>131</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="2">
@@ -3190,7 +3190,7 @@
         <v>367</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
         <v>11</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
